--- a/SEO/backlink - entity.xlsx
+++ b/SEO/backlink - entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Code/diennuoctranchi_frontend/SEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22BE619-22B7-E649-B389-AD6D3C95B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF44A4DA-4490-0E42-A2DD-6BA8C3AA0FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1034,9 +1034,6 @@
     <t>https://diennuoctranchi.com</t>
   </si>
   <si>
-    <t>https://diennuoctranchi.com tự hào là đơn vị chuyên cung cấp các dịch vụ lắp đặt, bảo trì và sửa chữa điện nước; lắp đặt, thay lõi, máy lọc nước; dịch vụ điện lạnh; dịch vụ sửa chữa nhà ở tại khu vực TP. Biên Hòa và huyện Trảng Bom thuộc tỉnh Đồng Nai.</t>
-  </si>
-  <si>
     <t>&lt;a href="https://diennuoctranchi.com/"&gt;Điện Nước Trần Chí&lt;/a&gt;</t>
   </si>
   <si>
@@ -1059,6 +1056,9 @@
   </si>
   <si>
     <t>wpsection.com</t>
+  </si>
+  <si>
+    <t>https://diennuoctranchi.com tự hào là đơn vị chuyên cung cấp các dịch vụ lắp đặt, bảo trì và sửa chữa điện nước; thay lắp, sửa chữa, thay lõi lọc máy lọc nước; dịch vụ điện lạnh; dịch vụ sửa chữa nhà ở tại khu vực TP. Biên Hòa và huyện Trảng Bom thuộc tỉnh Đồng Nai.</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1350,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1671,7 +1671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1870,7 @@
         <v>334</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2029,7 +2029,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -2091,7 +2091,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
@@ -2155,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2311,7 +2311,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -32339,165 +32339,207 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C3" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="41"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="41"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="41"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="41"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="41"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="41"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="41"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="41"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C23:D23"/>
@@ -32506,48 +32548,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SEO/backlink - entity.xlsx
+++ b/SEO/backlink - entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Code/diennuoctranchi_frontend/SEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF44A4DA-4490-0E42-A2DD-6BA8C3AA0FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C3A56-1FD6-FC45-BDD4-5840CC7C7919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,7 +1671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
